--- a/datasheets/OBCI_Cyton_BOM.xlsx
+++ b/datasheets/OBCI_Cyton_BOM.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\eleggo-hardware\datasheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F7F9E-9567-4DD5-AD2C-403699BBD3E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
   <si>
     <t>OBCI_V3_C</t>
   </si>
@@ -35,18 +43,9 @@
     <t>Package</t>
   </si>
   <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>C2,C4</t>
   </si>
   <si>
@@ -59,12 +58,6 @@
     <t>SM 1206</t>
   </si>
   <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>CC1206MKX5R5BB107</t>
-  </si>
-  <si>
     <t>MLCC</t>
   </si>
   <si>
@@ -77,75 +70,42 @@
     <t>SM0603</t>
   </si>
   <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>GRM188C80G106KE47D</t>
-  </si>
-  <si>
-    <t>C32,C35,C36,C38,C40</t>
-  </si>
-  <si>
     <t>2.2uF</t>
   </si>
   <si>
     <t>EIA_0402</t>
   </si>
   <si>
-    <t>GRM155C80J225ME95D</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>GRM155R61C225KE44D</t>
-  </si>
-  <si>
     <t>C6,C7,C14,C17,C18,C19,C21,C22,C27</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>CC0402KRX7R5BB105</t>
-  </si>
-  <si>
     <t>C5,C10,C12,C13,C15,C24,C28</t>
   </si>
   <si>
     <t>0.1uF</t>
   </si>
   <si>
-    <t>CC0402KRX7R7BB104</t>
-  </si>
-  <si>
     <t>C30</t>
   </si>
   <si>
     <t>0.01uF</t>
   </si>
   <si>
-    <t>CC0402KRX7R7BB103</t>
-  </si>
-  <si>
     <t>C16</t>
   </si>
   <si>
     <t>0.001uF</t>
   </si>
   <si>
-    <t>CC0402KRX7R7BB102</t>
-  </si>
-  <si>
     <t>C20,C23</t>
   </si>
   <si>
     <t>18pF</t>
   </si>
   <si>
-    <t>CC0402JRNPO9BN180</t>
-  </si>
-  <si>
     <t>R1,R2,R3,R4,R6</t>
   </si>
   <si>
@@ -158,27 +118,12 @@
     <t>SM</t>
   </si>
   <si>
-    <t>BOURNS</t>
-  </si>
-  <si>
-    <t>CAY16-2201F4LF</t>
-  </si>
-  <si>
     <t>4 R-ARRAY</t>
   </si>
   <si>
     <t>C3,C9,C11,C26,C34</t>
   </si>
   <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>CKCL44X7R1H102M085AA</t>
-  </si>
-  <si>
-    <t>4 CAP ARRAY</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -188,24 +133,12 @@
     <t>LGA</t>
   </si>
   <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIS3DHTR </t>
-  </si>
-  <si>
     <t>ST ACCELEROMETER</t>
   </si>
   <si>
     <t>U2</t>
   </si>
   <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>SN74LVC1G32DCKR</t>
-  </si>
-  <si>
     <t xml:space="preserve"> OR_GATE</t>
   </si>
   <si>
@@ -215,9 +148,6 @@
     <t>SOT-23-6</t>
   </si>
   <si>
-    <t>LM2664M6/NOPB</t>
-  </si>
-  <si>
     <t>V INVERTER</t>
   </si>
   <si>
@@ -227,21 +157,12 @@
     <t>SOT-23-5</t>
   </si>
   <si>
-    <t>TLV70025QDDCRQ1</t>
-  </si>
-  <si>
     <t>+2.5V LDO REG</t>
   </si>
   <si>
     <t>U5</t>
   </si>
   <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>MCP1754T-3302E/OT</t>
-  </si>
-  <si>
     <t>3V3 LDO REG</t>
   </si>
   <si>
@@ -251,24 +172,15 @@
     <t>TQFP-64</t>
   </si>
   <si>
-    <t>ADS1299IPAG</t>
-  </si>
-  <si>
     <t>ADS1299</t>
   </si>
   <si>
-    <t>Consigned by OpenBCI, Inc</t>
-  </si>
-  <si>
     <t>U7</t>
   </si>
   <si>
     <t>SSOP-28</t>
   </si>
   <si>
-    <t>PIC32MX250F128B-I/SS</t>
-  </si>
-  <si>
     <t>PIC32 MICROCONTROLLER</t>
   </si>
   <si>
@@ -278,9 +190,6 @@
     <t>VR</t>
   </si>
   <si>
-    <t>TPS72325DBVR</t>
-  </si>
-  <si>
     <t>-2.5 LDO REG</t>
   </si>
   <si>
@@ -290,12 +199,6 @@
     <t>BLE</t>
   </si>
   <si>
-    <t>RF DIGITAL</t>
-  </si>
-  <si>
-    <t>RFD22301</t>
-  </si>
-  <si>
     <t>BTLE Module</t>
   </si>
   <si>
@@ -311,39 +214,21 @@
     <t>SM 0603</t>
   </si>
   <si>
-    <t>Lite-On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTST-C193TBKT-5A </t>
-  </si>
-  <si>
     <t>BLUE LED</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>Comchip</t>
-  </si>
-  <si>
-    <t>CDSU400B</t>
-  </si>
-  <si>
     <t>DIODE</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>CDBU0130L</t>
-  </si>
-  <si>
     <t>D2,D3,D4,D5,D6,D7</t>
   </si>
   <si>
-    <t>TPD4E1B06DCKR</t>
-  </si>
-  <si>
     <t>TI QUAD TVS</t>
   </si>
   <si>
@@ -356,9 +241,6 @@
     <t>SOD-923</t>
   </si>
   <si>
-    <t>CZRQR52C3-HF</t>
-  </si>
-  <si>
     <t>3V Zener Diode</t>
   </si>
   <si>
@@ -368,9 +250,6 @@
     <t>1K</t>
   </si>
   <si>
-    <t>RT0402FRE071KL</t>
-  </si>
-  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -380,18 +259,12 @@
     <t>1M</t>
   </si>
   <si>
-    <t>RC0402JR-071ML</t>
-  </si>
-  <si>
     <t>R7,R9</t>
   </si>
   <si>
     <t>470K</t>
   </si>
   <si>
-    <t>RC0402JR-07470KL</t>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
@@ -401,12 +274,6 @@
     <t>8MHz</t>
   </si>
   <si>
-    <t>ABRACON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABMM2-8.000MHZ-E2-T </t>
-  </si>
-  <si>
     <t>8MHz XTAL</t>
   </si>
   <si>
@@ -416,12 +283,6 @@
     <t>BATT</t>
   </si>
   <si>
-    <t>JST Sales</t>
-  </si>
-  <si>
-    <t>S2B-PH-SM4-TB(LF)(SN)</t>
-  </si>
-  <si>
     <t>CONN HEADER PH SIDE 2POS 2MM SMD</t>
   </si>
   <si>
@@ -431,24 +292,12 @@
     <t>S</t>
   </si>
   <si>
-    <t>COPAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUS-13TB </t>
-  </si>
-  <si>
     <t>SP3T SLIDE SWITCH</t>
   </si>
   <si>
     <t>SW1,SW3</t>
   </si>
   <si>
-    <t>C&amp;K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTS810 SJK 250 SMTR LFS </t>
-  </si>
-  <si>
     <t>TACT SWITCH</t>
   </si>
   <si>
@@ -470,38 +319,70 @@
     <t>DIP</t>
   </si>
   <si>
-    <t>Wurth</t>
-  </si>
-  <si>
     <t>Dual 11 x 2  0.1" pitch MALE header row Right Angle</t>
+  </si>
+  <si>
+    <t>Part Link</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/50081/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/43703/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/43144/</t>
+  </si>
+  <si>
+    <t>C32,C35,C36,C38,C39,C40</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/9621/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/9622/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/16731/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/9677/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/16732/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/5669/</t>
+  </si>
+  <si>
+    <t>4 CAP ARRAY =&gt; 20 MLCC</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/43176/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/48428/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -543,59 +424,125 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -721,7 +668,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -730,7 +677,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -739,7 +686,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -813,7 +760,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -821,7 +768,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -840,7 +787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -870,7 +817,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,7 +843,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,7 +869,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +895,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -974,7 +921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1000,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1091,9 +1038,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1108,7 +1061,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1116,7 +1069,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1135,7 +1088,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1114,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1140,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1166,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1192,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,7 +1218,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,7 +1244,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,7 +1270,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1343,7 +1296,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,7 +1322,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1382,9 +1335,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1398,7 +1357,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1417,7 +1376,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1447,7 +1406,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1473,7 +1432,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1499,7 +1458,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1525,7 +1484,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1551,7 +1510,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1577,7 +1536,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1603,7 +1562,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1629,7 +1588,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1655,7 +1614,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1668,43 +1627,50 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:IR35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="H3:I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="3" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="1" customWidth="1"/>
-    <col min="11" max="256" width="6" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.8984375" style="1" customWidth="1"/>
+    <col min="9" max="252" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
@@ -1712,1033 +1678,866 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <f>ROW(A3)-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="H3" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A35" si="0">ROW(A4)-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>18</v>
       </c>
       <c r="C4" s="4">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
+      <c r="H4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="3">
-        <v>23</v>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="H5" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>35</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="H9" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F9" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s" s="3">
+      <c r="G13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s" s="3">
+      <c r="H13" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="H12" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="I12" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="H13" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s" s="3">
-        <v>55</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" t="s" s="3">
-        <v>56</v>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" t="s" s="3">
-        <v>57</v>
-      </c>
-      <c r="G14" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="H14" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" ht="17" customHeight="1">
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="3">
-        <v>61</v>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" t="s" s="3">
-        <v>56</v>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G15" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="H15" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="I15" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" ht="17" customHeight="1">
+      <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="3">
-        <v>65</v>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" t="s" s="3">
-        <v>56</v>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="G16" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="H16" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="I16" t="s" s="3">
-        <v>68</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" ht="17" customHeight="1">
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="3">
-        <v>69</v>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" t="s" s="3">
-        <v>56</v>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="G17" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="H17" t="s" s="5">
-        <v>71</v>
-      </c>
-      <c r="I17" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" ht="17" customHeight="1">
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" t="s" s="3">
-        <v>73</v>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" t="s" s="3">
-        <v>56</v>
+      <c r="D18" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G18" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" ht="17" customHeight="1">
+      <c r="F18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" t="s" s="3">
-        <v>77</v>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" t="s" s="3">
-        <v>56</v>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="G19" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="H19" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="I19" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="J19" t="s" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="1">
+      <c r="F19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" t="s" s="3">
-        <v>82</v>
+      <c r="B20" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="G20" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="I20" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" ht="17" customHeight="1">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" t="s" s="3">
-        <v>86</v>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
       </c>
-      <c r="D21" t="s" s="3">
-        <v>87</v>
+      <c r="D21" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G21" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="H21" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="I21" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" ht="17" customHeight="1">
+      <c r="F21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" t="s" s="3">
-        <v>90</v>
+      <c r="B22" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" t="s" s="3">
-        <v>91</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G22" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="H22" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="I22" t="s" s="3">
-        <v>94</v>
-      </c>
-      <c r="J22" t="s" s="3">
+      <c r="D22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s" s="3">
-        <v>95</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="C30" s="4">
         <v>1</v>
       </c>
-      <c r="D23" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="E23" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="F23" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="G23" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="H23" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" t="s" s="3">
-        <v>101</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s" s="3">
-        <v>102</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="G24" t="s" s="3">
-        <v>103</v>
-      </c>
-      <c r="H24" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="I24" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s" s="3">
-        <v>106</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="G25" t="s" s="3">
-        <v>103</v>
-      </c>
-      <c r="H25" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="I25" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s" s="3">
-        <v>108</v>
-      </c>
-      <c r="C26" s="4">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G26" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="H26" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="I26" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s" s="3">
-        <v>111</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="E27" t="s" s="3">
-        <v>112</v>
-      </c>
-      <c r="F27" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="G27" t="s" s="3">
-        <v>103</v>
-      </c>
-      <c r="H27" t="s" s="3">
-        <v>114</v>
-      </c>
-      <c r="I27" t="s" s="3">
-        <v>115</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s" s="3">
-        <v>116</v>
-      </c>
-      <c r="C28" s="4">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s" s="3">
-        <v>117</v>
-      </c>
-      <c r="F28" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s" s="3">
-        <v>118</v>
-      </c>
-      <c r="I28" t="s" s="3">
-        <v>119</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="E29" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="F29" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s" s="3">
-        <v>122</v>
-      </c>
-      <c r="I29" t="s" s="3">
-        <v>119</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" ht="17" customHeight="1">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s" s="3">
-        <v>123</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="E30" t="s" s="3">
-        <v>124</v>
-      </c>
-      <c r="F30" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H30" t="s" s="3">
-        <v>125</v>
-      </c>
-      <c r="I30" t="s" s="3">
-        <v>119</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" ht="17" customHeight="1">
+      <c r="D30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" t="s" s="3">
-        <v>126</v>
+      <c r="B31" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="D31" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="E31" t="s" s="3">
-        <v>128</v>
-      </c>
-      <c r="F31" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s" s="3">
-        <v>129</v>
-      </c>
-      <c r="H31" t="s" s="3">
-        <v>130</v>
-      </c>
-      <c r="I31" t="s" s="3">
-        <v>131</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" ht="17" customHeight="1">
+      <c r="D31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" t="s" s="3">
-        <v>132</v>
+      <c r="B32" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D32" t="s" s="3">
-        <v>133</v>
+      <c r="D32" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s" s="3">
-        <v>134</v>
-      </c>
-      <c r="H32" t="s" s="3">
-        <v>135</v>
-      </c>
-      <c r="I32" t="s" s="3">
-        <v>136</v>
-      </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" ht="17" customHeight="1">
+      <c r="F32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" t="s" s="3">
-        <v>137</v>
+      <c r="B33" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C33" s="4">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D33" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s" s="3">
-        <v>139</v>
-      </c>
-      <c r="H33" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="I33" t="s" s="3">
-        <v>141</v>
-      </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" ht="17" customHeight="1">
-      <c r="A34" s="4">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>142</v>
-      </c>
-      <c r="C34" s="4">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s" s="3">
-        <v>138</v>
+      <c r="D34" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s" s="3">
-        <v>143</v>
-      </c>
-      <c r="H34" t="s" s="3">
-        <v>144</v>
-      </c>
-      <c r="I34" t="s" s="3">
-        <v>145</v>
-      </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" ht="17" customHeight="1">
+      <c r="F34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" t="s" s="3">
-        <v>146</v>
+      <c r="B35" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" t="s" s="3">
-        <v>147</v>
+      <c r="D35" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" t="s" s="3">
-        <v>148</v>
-      </c>
-      <c r="J35" t="s" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" ht="17" customHeight="1">
-      <c r="A36" s="4">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s" s="3">
-        <v>149</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s" s="3">
-        <v>150</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="3">
-        <v>151</v>
-      </c>
-      <c r="G36" t="s" s="3">
-        <v>152</v>
-      </c>
-      <c r="H36" s="6">
-        <v>61302221021</v>
-      </c>
-      <c r="I36" t="s" s="3">
-        <v>153</v>
-      </c>
-      <c r="J36" s="2"/>
+      <c r="F35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{FEB5E9E2-259F-4322-B690-D2547E90FE58}"/>
+    <hyperlink ref="H14" r:id="rId2" xr:uid="{BE76AE93-7CC7-414D-96F6-D6FD21342C37}"/>
+    <hyperlink ref="H13" r:id="rId3" xr:uid="{EA8D4019-B922-44B7-A5D5-309FCA83BE74}"/>
+    <hyperlink ref="H12" r:id="rId4" xr:uid="{DE2EA0BA-0440-4BFA-8EC5-F5197B4516E9}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{13836BDC-2B0F-4140-90FD-303EFE6D506B}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{6B18D8F2-969D-4013-B6D9-35747F7D35F5}"/>
+    <hyperlink ref="H9" r:id="rId7" xr:uid="{6CA79503-AFAA-46E9-AF70-CD686C243590}"/>
+    <hyperlink ref="H8" r:id="rId8" xr:uid="{40E6E6CD-83B2-4DEE-B374-93B2CEF5B567}"/>
+    <hyperlink ref="H7" r:id="rId9" xr:uid="{A00F979A-0D9D-41B2-BB7B-4E684CE7D440}"/>
+    <hyperlink ref="H6" r:id="rId10" xr:uid="{B1962D36-166F-4CC6-BD8A-8ACCDF68EB33}"/>
+    <hyperlink ref="H5" r:id="rId11" xr:uid="{AA4535B9-AB4E-4697-8055-B96EFF9567F6}"/>
+    <hyperlink ref="H4" r:id="rId12" xr:uid="{A20CB05F-79E5-45D1-B4CB-FE7E072E21CB}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/datasheets/OBCI_Cyton_BOM.xlsx
+++ b/datasheets/OBCI_Cyton_BOM.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\eleggo-hardware\datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\eleggo-hardware\datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F7F9E-9567-4DD5-AD2C-403699BBD3E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19344" windowHeight="9168"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="135">
   <si>
     <t>OBCI_V3_C</t>
   </si>
@@ -362,13 +361,76 @@
   </si>
   <si>
     <t>https://store.comet.bg/Catalogue/Product/48428/</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/51527/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/16603/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/49230/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/48671/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/50861/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/35141/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/35161/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/35159/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/48303/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/5163393/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/49964/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/20857/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/51644/</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/Catalogue/Product/91009/</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>ESP-07</t>
+  </si>
+  <si>
+    <t>https://store.comet.bg/CatalogueFarnell/Product/1936100/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -385,6 +447,38 @@
       <color theme="10"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -400,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -423,16 +517,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -455,8 +593,55 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1645,30 +1830,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IR35"/>
+  <dimension ref="A1:IR37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="H3:I14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="3" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.09765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.8984375" style="1" customWidth="1"/>
-    <col min="9" max="252" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.07421875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.4609375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.07421875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.4609375" style="8" customWidth="1"/>
+    <col min="10" max="252" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1679,8 +1865,9 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1705,8 +1892,11 @@
       <c r="H2" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW(A3)-2</f>
         <v>1</v>
@@ -1729,11 +1919,14 @@
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A35" si="0">ROW(A4)-2</f>
         <v>2</v>
@@ -1756,11 +1949,14 @@
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1783,11 +1979,14 @@
       <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1810,11 +2009,14 @@
       <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1837,11 +2039,14 @@
       <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1864,11 +2069,14 @@
       <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1891,11 +2099,14 @@
       <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1918,11 +2129,14 @@
       <c r="G10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1945,11 +2159,14 @@
       <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1972,11 +2189,14 @@
       <c r="G12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1997,11 +2217,14 @@
       <c r="G13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2022,11 +2245,14 @@
       <c r="G14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2047,9 +2273,11 @@
       <c r="G15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2070,9 +2298,14 @@
       <c r="G16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2093,9 +2326,14 @@
       <c r="G17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2116,9 +2354,14 @@
       <c r="G18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2139,9 +2382,14 @@
       <c r="G19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2162,9 +2410,12 @@
       <c r="G20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="12"/>
+      <c r="I20" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2185,9 +2436,12 @@
       <c r="G21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="13"/>
+      <c r="I21" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2210,9 +2464,14 @@
       <c r="G22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2233,9 +2492,14 @@
       <c r="G23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2256,9 +2520,14 @@
       <c r="G24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2279,9 +2548,14 @@
       <c r="G25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2304,9 +2578,12 @@
       <c r="G26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="12"/>
+      <c r="I26" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2329,9 +2606,14 @@
       <c r="G27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2354,9 +2636,14 @@
       <c r="G28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2379,9 +2666,14 @@
       <c r="G29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2404,9 +2696,14 @@
       <c r="G30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2427,9 +2724,12 @@
       <c r="G31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="12"/>
+      <c r="I31" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2450,9 +2750,11 @@
       <c r="G32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2473,9 +2775,14 @@
       <c r="G33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2496,48 +2803,89 @@
       <c r="G34" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="H34" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="14">
         <v>1</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="6"/>
+      <c r="H35" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{FEB5E9E2-259F-4322-B690-D2547E90FE58}"/>
-    <hyperlink ref="H14" r:id="rId2" xr:uid="{BE76AE93-7CC7-414D-96F6-D6FD21342C37}"/>
-    <hyperlink ref="H13" r:id="rId3" xr:uid="{EA8D4019-B922-44B7-A5D5-309FCA83BE74}"/>
-    <hyperlink ref="H12" r:id="rId4" xr:uid="{DE2EA0BA-0440-4BFA-8EC5-F5197B4516E9}"/>
-    <hyperlink ref="H11" r:id="rId5" xr:uid="{13836BDC-2B0F-4140-90FD-303EFE6D506B}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{6B18D8F2-969D-4013-B6D9-35747F7D35F5}"/>
-    <hyperlink ref="H9" r:id="rId7" xr:uid="{6CA79503-AFAA-46E9-AF70-CD686C243590}"/>
-    <hyperlink ref="H8" r:id="rId8" xr:uid="{40E6E6CD-83B2-4DEE-B374-93B2CEF5B567}"/>
-    <hyperlink ref="H7" r:id="rId9" xr:uid="{A00F979A-0D9D-41B2-BB7B-4E684CE7D440}"/>
-    <hyperlink ref="H6" r:id="rId10" xr:uid="{B1962D36-166F-4CC6-BD8A-8ACCDF68EB33}"/>
-    <hyperlink ref="H5" r:id="rId11" xr:uid="{AA4535B9-AB4E-4697-8055-B96EFF9567F6}"/>
-    <hyperlink ref="H4" r:id="rId12" xr:uid="{A20CB05F-79E5-45D1-B4CB-FE7E072E21CB}"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H14" r:id="rId2"/>
+    <hyperlink ref="H13" r:id="rId3"/>
+    <hyperlink ref="H12" r:id="rId4"/>
+    <hyperlink ref="H11" r:id="rId5"/>
+    <hyperlink ref="H10" r:id="rId6"/>
+    <hyperlink ref="H9" r:id="rId7"/>
+    <hyperlink ref="H8" r:id="rId8"/>
+    <hyperlink ref="H7" r:id="rId9"/>
+    <hyperlink ref="H6" r:id="rId10"/>
+    <hyperlink ref="H5" r:id="rId11"/>
+    <hyperlink ref="H4" r:id="rId12"/>
+    <hyperlink ref="H17" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
